--- a/stock_chosen/scores.xlsx
+++ b/stock_chosen/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnnaMa\Desktop\repo\Fintech\Final Project\stock_price_prediction\stock_chosen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3948236E-DEB8-4519-9610-0DAC7C390141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E25A2-84C6-4904-970D-64E3E68BECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6ADFD70B-B90A-43A7-9DA9-7BCA9F6A04BF}"/>
+    <workbookView xWindow="9372" yWindow="5292" windowWidth="19200" windowHeight="10116" xr2:uid="{6ADFD70B-B90A-43A7-9DA9-7BCA9F6A04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>linear regression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>ridge regression</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +63,18 @@
   </si>
   <si>
     <t>隆基绿能_601012_成长.xlsx</t>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -118,11 +126,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4260C295-1617-471A-883D-175328C4B30D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -453,23 +464,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.721727812712322</v>
+        <v>3.4902735711289198E-2</v>
       </c>
       <c r="C2">
-        <v>0.91947189483534197</v>
+        <v>3.8243182839098402E-2</v>
       </c>
       <c r="D2">
-        <v>0.799119647884039</v>
+        <v>2.9593392811421201E-2</v>
       </c>
       <c r="E2">
-        <v>0.90751982082758398</v>
+        <v>2.4421070607133898E-2</v>
       </c>
       <c r="F2">
-        <v>0.954356609727117</v>
+        <v>3.6278991577615001E-2</v>
       </c>
       <c r="G2">
-        <v>0.89304282476385399</v>
+        <v>5.5898177110180802E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -500,49 +514,165 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.68171191407784104</v>
+        <v>2.55980153557606E-2</v>
       </c>
       <c r="C3">
-        <v>0.945697104722652</v>
+        <v>2.11297989624178E-2</v>
       </c>
       <c r="D3">
-        <v>0.80798008742148997</v>
+        <v>2.1374841563834301E-2</v>
       </c>
       <c r="E3">
-        <v>0.89100151526526306</v>
+        <v>2.2883533800297499E-2</v>
       </c>
       <c r="F3">
-        <v>0.95315095855992005</v>
+        <v>3.1201547649395801E-2</v>
       </c>
       <c r="G3">
-        <v>0.90880351502902001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>3.2305813161049898E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.88638587928088297</v>
-      </c>
-      <c r="C4">
-        <v>-1.5257667428305699</v>
-      </c>
-      <c r="D4">
-        <v>-3.02523487898788</v>
-      </c>
-      <c r="E4">
-        <v>0.97534009984384895</v>
-      </c>
-      <c r="F4">
-        <v>0.96201587052130499</v>
-      </c>
-      <c r="G4">
-        <v>0.96054561105982295</v>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2.3888593403726E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.8618046407542201E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.8192555767632599E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.8724637923315898E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.8216033107357302E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.03655966385026E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.8835457696299698E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.6207009314422E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.6393934363046401E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.7085315056351399E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.43517052652562E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.2349279085223599E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>